--- a/data_processed/20250717/BTCUSDQMOMENT_20250717.xlsx
+++ b/data_processed/20250717/BTCUSDQMOMENT_20250717.xlsx
@@ -1202,10 +1202,18 @@
       <c r="H20" t="n">
         <v>5.193034230782233</v>
       </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
+      <c r="I20" t="n">
+        <v>-0.2646634522547932</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.1206907820670968</v>
+      </c>
+      <c r="K20" t="n">
+        <v>-0.3767260160405279</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.278413693371704</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data_processed/20250717/BTCUSDQMOMENT_20250717.xlsx
+++ b/data_processed/20250717/BTCUSDQMOMENT_20250717.xlsx
@@ -566,10 +566,18 @@
       <c r="H3" t="n">
         <v>9.606121058947419</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+      <c r="I3" t="n">
+        <v>-0.3964485274823746</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.2101265688718679</v>
+      </c>
+      <c r="K3" t="n">
+        <v>-0.6701400462403837</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.980426928740402</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">

--- a/data_processed/20250717/BTCUSDQMOMENT_20250717.xlsx
+++ b/data_processed/20250717/BTCUSDQMOMENT_20250717.xlsx
@@ -552,19 +552,19 @@
         <v>0.1178082191780822</v>
       </c>
       <c r="D3" t="n">
-        <v>120135.6905770108</v>
+        <v>120114.7050624994</v>
       </c>
       <c r="E3" t="n">
-        <v>0.007590319953718551</v>
+        <v>0.005716170030730911</v>
       </c>
       <c r="F3" t="n">
-        <v>0.17422014856194</v>
+        <v>0.1898363816340447</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.6925097175122659</v>
+        <v>-1.923913960649899</v>
       </c>
       <c r="H3" t="n">
-        <v>9.606121058947419</v>
+        <v>28.50424355762153</v>
       </c>
       <c r="I3" t="n">
         <v>-0.3964485274823746</v>
@@ -594,19 +594,19 @@
         <v>0.1945205479452055</v>
       </c>
       <c r="D4" t="n">
-        <v>120852.5629856203</v>
+        <v>120842.0515361024</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.002096738474734557</v>
+        <v>-0.002684588396922067</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2130135886094363</v>
+        <v>0.2167307467912649</v>
       </c>
       <c r="G4" t="n">
-        <v>-1.396436662923288</v>
+        <v>-1.592320229384256</v>
       </c>
       <c r="H4" t="n">
-        <v>16.60557457572716</v>
+        <v>19.2510427042995</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -696,19 +696,19 @@
         <v>0.4438356164383562</v>
       </c>
       <c r="D7" t="n">
-        <v>122997.1875135269</v>
+        <v>122903.873433358</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.02023977965714768</v>
+        <v>-0.02401996512916595</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2389223593261457</v>
+        <v>0.256968926954696</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.130077002405099</v>
+        <v>-1.67453332439019</v>
       </c>
       <c r="H7" t="n">
-        <v>11.7576611825619</v>
+        <v>16.78877402657957</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -730,19 +730,19 @@
         <v>0.8657534246575342</v>
       </c>
       <c r="D8" t="n">
-        <v>124376.6259438543</v>
+        <v>124372.6215741616</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.03913158346302356</v>
+        <v>-0.03914987466912237</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2050449164549054</v>
+        <v>0.2048028227084394</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.8000277514182075</v>
+        <v>-0.7849381177818593</v>
       </c>
       <c r="H8" t="n">
-        <v>6.958555849666802</v>
+        <v>6.810912527527823</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -764,19 +764,19 @@
         <v>0.9424657534246575</v>
       </c>
       <c r="D9" t="n">
-        <v>125993.7240212402</v>
+        <v>125972.8059788504</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.07386001192995977</v>
+        <v>-0.07596237674067355</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3260583151639748</v>
+        <v>0.3383442592654061</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.383919751261571</v>
+        <v>-1.592419964088421</v>
       </c>
       <c r="H9" t="n">
-        <v>8.478685604380049</v>
+        <v>10.04007871478633</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -798,19 +798,19 @@
         <v>1.191780821917808</v>
       </c>
       <c r="D10" t="n">
-        <v>127530.6410083676</v>
+        <v>127533.0885102047</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1126845317337473</v>
+        <v>-0.1129815576752338</v>
       </c>
       <c r="F10" t="n">
-        <v>0.4425100265802911</v>
+        <v>0.4449390691761603</v>
       </c>
       <c r="G10" t="n">
-        <v>-1.926117506576658</v>
+        <v>-1.95462681741503</v>
       </c>
       <c r="H10" t="n">
-        <v>9.759952424748239</v>
+        <v>9.989052112008499</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -832,19 +832,19 @@
         <v>1.438356164383562</v>
       </c>
       <c r="D11" t="n">
-        <v>130705.725329719</v>
+        <v>129667.2855256325</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1025822037532825</v>
+        <v>-0.1265920019725619</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3751913546058113</v>
+        <v>0.4438857418809212</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.349687378153907</v>
+        <v>-1.690078334048402</v>
       </c>
       <c r="H11" t="n">
-        <v>6.611132248292975</v>
+        <v>8.074810352976868</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -866,19 +866,19 @@
         <v>0.01095890410958904</v>
       </c>
       <c r="D12" t="n">
-        <v>119253.7860487608</v>
+        <v>119254.3923360155</v>
       </c>
       <c r="E12" t="n">
-        <v>0.04318192929279297</v>
+        <v>0.04323637520711989</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1281204140436483</v>
+        <v>0.1280050282576655</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.8359649545596924</v>
+        <v>-0.8319332768131996</v>
       </c>
       <c r="H12" t="n">
-        <v>8.405851743706078</v>
+        <v>8.387396791621915</v>
       </c>
       <c r="I12" t="n">
         <v>-0.02636414843000843</v>
@@ -908,19 +908,19 @@
         <v>0.0136986301369863</v>
       </c>
       <c r="D13" t="n">
-        <v>119272.2052129109</v>
+        <v>119283.0641704522</v>
       </c>
       <c r="E13" t="n">
-        <v>0.03750648914380583</v>
+        <v>0.03871707193133696</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1462708609372801</v>
+        <v>0.1371505746767383</v>
       </c>
       <c r="G13" t="n">
-        <v>-1.531501960259548</v>
+        <v>-0.6641273687184834</v>
       </c>
       <c r="H13" t="n">
-        <v>19.63623744810807</v>
+        <v>7.737954321159144</v>
       </c>
       <c r="I13" t="n">
         <v>-0.02512950445860199</v>
@@ -950,19 +950,19 @@
         <v>0.01643835616438356</v>
       </c>
       <c r="D14" t="n">
-        <v>119258.5631134325</v>
+        <v>119296.5797164548</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0311318147235258</v>
+        <v>0.03486042747620594</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1590346206089197</v>
+        <v>0.135331263022273</v>
       </c>
       <c r="G14" t="n">
-        <v>-2.231049524570924</v>
+        <v>-0.4540718975670743</v>
       </c>
       <c r="H14" t="n">
-        <v>26.74734608960767</v>
+        <v>5.397632146183678</v>
       </c>
       <c r="I14" t="n">
         <v>-0.03908920178944377</v>
@@ -992,19 +992,19 @@
         <v>0.01917808219178082</v>
       </c>
       <c r="D15" t="n">
-        <v>119273.8028433305</v>
+        <v>119318.7819648809</v>
       </c>
       <c r="E15" t="n">
-        <v>0.02764285249705585</v>
+        <v>0.03166379421320918</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1670646083064898</v>
+        <v>0.1438699036178997</v>
       </c>
       <c r="G15" t="n">
-        <v>-1.941792507286978</v>
+        <v>-0.3152326432366445</v>
       </c>
       <c r="H15" t="n">
-        <v>25.05367428382751</v>
+        <v>6.334835665030238</v>
       </c>
       <c r="I15" t="n">
         <v>-0.03723098500791051</v>
@@ -1070,19 +1070,19 @@
         <v>0.0410958904109589</v>
       </c>
       <c r="D17" t="n">
-        <v>120196.987159905</v>
+        <v>120180.1814878861</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0488817921836198</v>
+        <v>0.04801856930497525</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1551993941929812</v>
+        <v>0.1571449491512065</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.272549568010328</v>
+        <v>-0.3355551891639402</v>
       </c>
       <c r="H17" t="n">
-        <v>5.651462316697984</v>
+        <v>5.944762973412502</v>
       </c>
       <c r="I17" t="n">
         <v>-0.1161817036246621</v>
@@ -1112,19 +1112,19 @@
         <v>0.06027397260273973</v>
       </c>
       <c r="D18" t="n">
-        <v>120182.9812945991</v>
+        <v>120175.7957607583</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0343980003892629</v>
+        <v>0.03396510709503803</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1514349790658051</v>
+        <v>0.153373968665714</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1170155798705061</v>
+        <v>-0.2087320791484796</v>
       </c>
       <c r="H18" t="n">
-        <v>4.856525339301307</v>
+        <v>5.391345585872357</v>
       </c>
       <c r="I18" t="n">
         <v>-0.2837610028426867</v>
@@ -1154,19 +1154,19 @@
         <v>0.07945205479452055</v>
       </c>
       <c r="D19" t="n">
-        <v>120200.2574421157</v>
+        <v>120245.2885656592</v>
       </c>
       <c r="E19" t="n">
-        <v>0.02347450102347459</v>
+        <v>0.02560471326149926</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1655457624683839</v>
+        <v>0.1584156693045555</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.3688563846742544</v>
+        <v>-0.1047412573517531</v>
       </c>
       <c r="H19" t="n">
-        <v>6.781536672162811</v>
+        <v>5.461498069423164</v>
       </c>
       <c r="I19" t="n">
         <v>-0.2004606268140125</v>

--- a/data_processed/20250717/BTCUSDQMOMENT_20250717.xlsx
+++ b/data_processed/20250717/BTCUSDQMOMENT_20250717.xlsx
@@ -608,10 +608,18 @@
       <c r="H4" t="n">
         <v>19.2510427042995</v>
       </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>-0.6089159972470694</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.271496734034298</v>
+      </c>
+      <c r="K4" t="n">
+        <v>-0.3188150030356908</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.307996313816933</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">

--- a/data_processed/20250717/BTCUSDQMOMENT_20250717.xlsx
+++ b/data_processed/20250717/BTCUSDQMOMENT_20250717.xlsx
@@ -650,10 +650,18 @@
       <c r="H5" t="n">
         <v>10.96888143120432</v>
       </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>-0.6647498008515189</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.450967951930201</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.1125813004828595</v>
+      </c>
+      <c r="L5" t="n">
+        <v>2.513282465284228</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
